--- a/Remedial Dataset.xlsx
+++ b/Remedial Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopia\OneDrive\Documents\projects\python projects\Nischitha\Remedial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopia\OneDrive\Documents\projects\python projects\Nischitha\remedial-class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B792B47E-9994-488B-9C10-6130A385CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F8CAF-3441-4B8E-80FF-5061D2393EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>prawjal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -186,8 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -471,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,492 +487,927 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>9743996455</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>9743996455</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>8618726459</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>9964030400</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>8501296341</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="1">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>9978451213</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>7353241686</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>9586471235</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="F10" s="1">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
         <v>21</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>8889655231</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="G11" s="1">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>6854712265</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>9743996455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>9743996455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14">
+        <v>8618726459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>9964030400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>8501296341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>9978451213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>7353241686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19">
+        <v>9586471235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>8889655231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21">
+        <v>6854712265</v>
       </c>
     </row>
   </sheetData>
@@ -1001,6 +1432,26 @@
     <hyperlink ref="M9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="M10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="M11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{FF161C31-F8CA-4351-8EB1-674A2E895D55}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{CC588EE5-99F3-4E70-BA78-3182C6024F59}"/>
+    <hyperlink ref="M12" r:id="rId23" xr:uid="{8823C221-059A-4A08-A26E-3B7F901A7282}"/>
+    <hyperlink ref="M13" r:id="rId24" xr:uid="{E020842A-52D0-4DEA-AF44-EEA26511CB8F}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{ABA3C115-2B29-435B-A1AF-85868DFE0FC3}"/>
+    <hyperlink ref="C15" r:id="rId26" xr:uid="{1FDFBA7E-AEB7-4563-8D70-B502BFB161CE}"/>
+    <hyperlink ref="C16" r:id="rId27" xr:uid="{DC4A9D77-2BCA-4A9C-BA03-93C0DF9A96B7}"/>
+    <hyperlink ref="C17" r:id="rId28" xr:uid="{B8BE6754-5972-4814-9B33-E411001788D8}"/>
+    <hyperlink ref="C18" r:id="rId29" xr:uid="{C08121E6-1442-4F09-B301-0F65D23061F3}"/>
+    <hyperlink ref="C19" r:id="rId30" xr:uid="{FDDBC680-F331-40CD-AC8E-BFF22BBA6175}"/>
+    <hyperlink ref="C20" r:id="rId31" xr:uid="{09942419-CFA0-4546-BA03-A0C12FE43B4A}"/>
+    <hyperlink ref="C21" r:id="rId32" xr:uid="{65B41EAA-0E3B-41BC-B632-E00B8A99B665}"/>
+    <hyperlink ref="M14" r:id="rId33" xr:uid="{F9277E1E-7D07-48BE-88E9-B79C86F97453}"/>
+    <hyperlink ref="M15" r:id="rId34" xr:uid="{47AA4129-69D8-4A6D-91C8-CED1EF34E8F1}"/>
+    <hyperlink ref="M16" r:id="rId35" xr:uid="{528EA531-C64B-4D49-840C-8D48687EF5D3}"/>
+    <hyperlink ref="M17" r:id="rId36" xr:uid="{FE4B84F4-D2E3-45D5-92B9-CBCF5A9EFF68}"/>
+    <hyperlink ref="M18" r:id="rId37" xr:uid="{DA45EFF0-D044-4A46-B802-693F7A312BB2}"/>
+    <hyperlink ref="M19" r:id="rId38" xr:uid="{8D1FE3B8-C552-4DB9-986D-3F4BEA949A90}"/>
+    <hyperlink ref="M20" r:id="rId39" xr:uid="{DB82A890-6BAD-483F-93AB-7CE64196AE6F}"/>
+    <hyperlink ref="M21" r:id="rId40" xr:uid="{8A8719C0-2372-4A6F-AD9F-060515DC9DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
